--- a/tabular/contributed/PrOD.xlsx
+++ b/tabular/contributed/PrOD.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PHE Oct 2017\HCV WGS service\Lit search\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshsinger/gitrepos_ssh/PHE-HCV-DRUG-RESISTANCE/tabular/contributed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0DEAF52D-7F80-4835-9124-8F0B29C999C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17868" windowHeight="9072" activeTab="2" xr2:uid="{953DA455-22AD-48E4-967C-7C17C35013B1}"/>
+    <workbookView xWindow="9300" yWindow="1920" windowWidth="35540" windowHeight="24200"/>
   </bookViews>
   <sheets>
     <sheet name="OMB" sheetId="1" r:id="rId1"/>
     <sheet name="PTV" sheetId="2" r:id="rId2"/>
     <sheet name="DSV" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="346">
   <si>
     <t>gene</t>
   </si>
@@ -504,9 +509,6 @@
   </si>
   <si>
     <t>M28T+H58P</t>
-  </si>
-  <si>
-    <t>Y9SN</t>
   </si>
   <si>
     <t>M28V+Q30K</t>
@@ -1073,8 +1075,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,6 +1115,22 @@
       <sz val="11"/>
       <color rgb="FF575757"/>
       <name val="Calibri  "/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1166,8 +1184,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1261,7 +1281,9 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1573,36 +1595,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F65026-3A1C-486E-81D7-14F7BF30DD73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H126" sqref="H126:H130"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="8.83203125" style="24"/>
     <col min="2" max="2" width="12.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="24" customWidth="1"/>
     <col min="7" max="7" width="0" style="24" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="24" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="32" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="32" customWidth="1"/>
     <col min="10" max="10" width="29.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" style="24" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" style="24" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" style="24" customWidth="1"/>
-    <col min="15" max="15" width="46.5546875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="24" customWidth="1"/>
+    <col min="14" max="14" width="21.83203125" style="24" customWidth="1"/>
+    <col min="15" max="15" width="46.5" style="24" customWidth="1"/>
     <col min="16" max="16" width="21" style="24" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="24"/>
+    <col min="17" max="16384" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27.6">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1675,7 @@
       </c>
       <c r="Q1" s="23"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
@@ -1698,7 +1720,7 @@
       <c r="P2" s="25"/>
       <c r="Q2" s="23"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
@@ -1741,7 +1763,7 @@
       <c r="P3" s="25"/>
       <c r="Q3" s="23"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>16</v>
       </c>
@@ -1772,7 +1794,7 @@
       <c r="P4" s="25"/>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
@@ -1803,7 +1825,7 @@
       <c r="P5" s="25"/>
       <c r="Q5" s="23"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
@@ -1834,7 +1856,7 @@
       <c r="P6" s="25"/>
       <c r="Q6" s="23"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
@@ -1865,7 +1887,7 @@
       <c r="P7" s="25"/>
       <c r="Q7" s="23"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>16</v>
       </c>
@@ -1896,7 +1918,7 @@
       <c r="P8" s="25"/>
       <c r="Q8" s="23"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>16</v>
       </c>
@@ -1927,7 +1949,7 @@
       <c r="P9" s="25"/>
       <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
@@ -1958,7 +1980,7 @@
       <c r="P10" s="25"/>
       <c r="Q10" s="23"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>16</v>
       </c>
@@ -1989,7 +2011,7 @@
       <c r="P11" s="25"/>
       <c r="Q11" s="23"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>16</v>
       </c>
@@ -2020,7 +2042,7 @@
       <c r="P12" s="25"/>
       <c r="Q12" s="23"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>16</v>
       </c>
@@ -2051,7 +2073,7 @@
       <c r="P13" s="25"/>
       <c r="Q13" s="23"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
@@ -2082,7 +2104,7 @@
       <c r="P14" s="25"/>
       <c r="Q14" s="23"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
@@ -2113,7 +2135,7 @@
       <c r="P15" s="25"/>
       <c r="Q15" s="23"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
@@ -2144,7 +2166,7 @@
       <c r="P16" s="25"/>
       <c r="Q16" s="23"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>16</v>
       </c>
@@ -2175,7 +2197,7 @@
       <c r="P17" s="25"/>
       <c r="Q17" s="23"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
@@ -2206,7 +2228,7 @@
       <c r="P18" s="25"/>
       <c r="Q18" s="23"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2259,7 @@
       <c r="P19" s="25"/>
       <c r="Q19" s="23"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>16</v>
       </c>
@@ -2268,7 +2290,7 @@
       <c r="P20" s="25"/>
       <c r="Q20" s="23"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>16</v>
       </c>
@@ -2307,7 +2329,7 @@
       <c r="P21" s="25"/>
       <c r="Q21" s="23"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>16</v>
       </c>
@@ -2348,7 +2370,7 @@
       <c r="P22" s="25"/>
       <c r="Q22" s="23"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>16</v>
       </c>
@@ -2389,7 +2411,7 @@
       <c r="P23" s="25"/>
       <c r="Q23" s="23"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
@@ -2415,7 +2437,7 @@
       <c r="I24" s="26"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L24" s="25" t="s">
         <v>99</v>
@@ -2430,7 +2452,7 @@
       <c r="P24" s="25"/>
       <c r="Q24" s="23"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>16</v>
       </c>
@@ -2470,7 +2492,7 @@
       <c r="P25" s="25"/>
       <c r="Q25" s="23"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>16</v>
       </c>
@@ -2510,7 +2532,7 @@
       <c r="P26" s="25"/>
       <c r="Q26" s="23"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>16</v>
       </c>
@@ -2541,7 +2563,7 @@
       <c r="P27" s="25"/>
       <c r="Q27" s="23"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>16</v>
       </c>
@@ -2572,7 +2594,7 @@
       <c r="P28" s="25"/>
       <c r="Q28" s="23"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>16</v>
       </c>
@@ -2603,7 +2625,7 @@
       <c r="P29" s="25"/>
       <c r="Q29" s="23"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>16</v>
       </c>
@@ -2634,7 +2656,7 @@
       <c r="P30" s="25"/>
       <c r="Q30" s="23"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>16</v>
       </c>
@@ -2665,7 +2687,7 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="23"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>16</v>
       </c>
@@ -2696,7 +2718,7 @@
       <c r="P32" s="25"/>
       <c r="Q32" s="23"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>16</v>
       </c>
@@ -2727,7 +2749,7 @@
       <c r="P33" s="25"/>
       <c r="Q33" s="23"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>16</v>
       </c>
@@ -2758,7 +2780,7 @@
       <c r="P34" s="25"/>
       <c r="Q34" s="23"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>16</v>
       </c>
@@ -2789,7 +2811,7 @@
       <c r="P35" s="25"/>
       <c r="Q35" s="23"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>16</v>
       </c>
@@ -2820,7 +2842,7 @@
       <c r="P36" s="25"/>
       <c r="Q36" s="23"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>16</v>
       </c>
@@ -2851,7 +2873,7 @@
       <c r="P37" s="25"/>
       <c r="Q37" s="23"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>16</v>
       </c>
@@ -2882,7 +2904,7 @@
       <c r="P38" s="25"/>
       <c r="Q38" s="23"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>16</v>
       </c>
@@ -2913,7 +2935,7 @@
       <c r="P39" s="25"/>
       <c r="Q39" s="23"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>16</v>
       </c>
@@ -2944,7 +2966,7 @@
       <c r="P40" s="25"/>
       <c r="Q40" s="23"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>16</v>
       </c>
@@ -2975,7 +2997,7 @@
       <c r="P41" s="25"/>
       <c r="Q41" s="23"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>16</v>
       </c>
@@ -3006,7 +3028,7 @@
       <c r="P42" s="25"/>
       <c r="Q42" s="23"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>16</v>
       </c>
@@ -3037,7 +3059,7 @@
       <c r="P43" s="25"/>
       <c r="Q43" s="23"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
         <v>16</v>
       </c>
@@ -3068,7 +3090,7 @@
       <c r="P44" s="25"/>
       <c r="Q44" s="23"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>16</v>
       </c>
@@ -3099,7 +3121,7 @@
       <c r="P45" s="25"/>
       <c r="Q45" s="23"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>16</v>
       </c>
@@ -3130,7 +3152,7 @@
       <c r="P46" s="25"/>
       <c r="Q46" s="23"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
         <v>16</v>
       </c>
@@ -3161,7 +3183,7 @@
       <c r="P47" s="25"/>
       <c r="Q47" s="23"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
         <v>16</v>
       </c>
@@ -3192,7 +3214,7 @@
       <c r="P48" s="25"/>
       <c r="Q48" s="23"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +3245,7 @@
       <c r="P49" s="25"/>
       <c r="Q49" s="23"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>16</v>
       </c>
@@ -3254,7 +3276,7 @@
       <c r="P50" s="25"/>
       <c r="Q50" s="23"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>16</v>
       </c>
@@ -3285,7 +3307,7 @@
       <c r="P51" s="25"/>
       <c r="Q51" s="23"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>16</v>
       </c>
@@ -3316,7 +3338,7 @@
       <c r="P52" s="25"/>
       <c r="Q52" s="23"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
         <v>16</v>
       </c>
@@ -3347,7 +3369,7 @@
       <c r="P53" s="25"/>
       <c r="Q53" s="23"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
         <v>16</v>
       </c>
@@ -3378,7 +3400,7 @@
       <c r="P54" s="25"/>
       <c r="Q54" s="23"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
         <v>16</v>
       </c>
@@ -3409,7 +3431,7 @@
       <c r="P55" s="25"/>
       <c r="Q55" s="23"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
         <v>16</v>
       </c>
@@ -3440,7 +3462,7 @@
       <c r="P56" s="25"/>
       <c r="Q56" s="23"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>16</v>
       </c>
@@ -3471,7 +3493,7 @@
       <c r="P57" s="25"/>
       <c r="Q57" s="23"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
         <v>16</v>
       </c>
@@ -3502,7 +3524,7 @@
       <c r="P58" s="25"/>
       <c r="Q58" s="23"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
         <v>16</v>
       </c>
@@ -3533,7 +3555,7 @@
       <c r="P59" s="25"/>
       <c r="Q59" s="23"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
         <v>16</v>
       </c>
@@ -3564,7 +3586,7 @@
       <c r="P60" s="25"/>
       <c r="Q60" s="23"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
         <v>16</v>
       </c>
@@ -3595,7 +3617,7 @@
       <c r="P61" s="25"/>
       <c r="Q61" s="23"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>16</v>
       </c>
@@ -3626,7 +3648,7 @@
       <c r="P62" s="25"/>
       <c r="Q62" s="23"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>16</v>
       </c>
@@ -3657,7 +3679,7 @@
       <c r="P63" s="25"/>
       <c r="Q63" s="23"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
         <v>16</v>
       </c>
@@ -3688,7 +3710,7 @@
       <c r="P64" s="25"/>
       <c r="Q64" s="23"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
         <v>16</v>
       </c>
@@ -3719,7 +3741,7 @@
       <c r="P65" s="25"/>
       <c r="Q65" s="23"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
         <v>16</v>
       </c>
@@ -3750,7 +3772,7 @@
       <c r="P66" s="25"/>
       <c r="Q66" s="23"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
         <v>16</v>
       </c>
@@ -3781,7 +3803,7 @@
       <c r="P67" s="25"/>
       <c r="Q67" s="23"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
         <v>16</v>
       </c>
@@ -3812,7 +3834,7 @@
       <c r="P68" s="25"/>
       <c r="Q68" s="23"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="25" t="s">
         <v>16</v>
       </c>
@@ -3837,13 +3859,13 @@
       </c>
       <c r="I69" s="26"/>
       <c r="J69" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K69" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L69" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M69" s="25"/>
       <c r="N69" s="25"/>
@@ -3853,7 +3875,7 @@
       <c r="P69" s="25"/>
       <c r="Q69" s="23"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
         <v>16</v>
       </c>
@@ -3878,13 +3900,13 @@
       </c>
       <c r="I70" s="26"/>
       <c r="J70" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K70" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L70" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M70" s="25"/>
       <c r="N70" s="25"/>
@@ -3894,7 +3916,7 @@
       <c r="P70" s="25"/>
       <c r="Q70" s="23"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
         <v>16</v>
       </c>
@@ -3919,13 +3941,13 @@
       </c>
       <c r="I71" s="26"/>
       <c r="J71" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K71" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L71" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M71" s="25"/>
       <c r="N71" s="25"/>
@@ -3935,7 +3957,7 @@
       <c r="P71" s="25"/>
       <c r="Q71" s="23"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="25" t="s">
         <v>16</v>
       </c>
@@ -3960,13 +3982,13 @@
       </c>
       <c r="I72" s="26"/>
       <c r="J72" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K72" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L72" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M72" s="25"/>
       <c r="N72" s="25"/>
@@ -3976,7 +3998,7 @@
       <c r="P72" s="25"/>
       <c r="Q72" s="23"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
         <v>16</v>
       </c>
@@ -3984,7 +4006,7 @@
         <v>17</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>19</v>
@@ -4001,13 +4023,13 @@
       </c>
       <c r="I73" s="26"/>
       <c r="J73" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K73" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L73" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
@@ -4017,7 +4039,7 @@
       <c r="P73" s="25"/>
       <c r="Q73" s="23"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="25" t="s">
         <v>16</v>
       </c>
@@ -4025,7 +4047,7 @@
         <v>17</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>20</v>
@@ -4042,13 +4064,13 @@
       </c>
       <c r="I74" s="26"/>
       <c r="J74" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K74" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L74" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M74" s="25"/>
       <c r="N74" s="25"/>
@@ -4058,7 +4080,7 @@
       <c r="P74" s="25"/>
       <c r="Q74" s="23"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="25" t="s">
         <v>16</v>
       </c>
@@ -4083,13 +4105,13 @@
       </c>
       <c r="I75" s="26"/>
       <c r="J75" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K75" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L75" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M75" s="25"/>
       <c r="N75" s="25"/>
@@ -4099,7 +4121,7 @@
       <c r="P75" s="25"/>
       <c r="Q75" s="23"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
         <v>16</v>
       </c>
@@ -4124,13 +4146,13 @@
       </c>
       <c r="I76" s="26"/>
       <c r="J76" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K76" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L76" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M76" s="25"/>
       <c r="N76" s="25"/>
@@ -4140,7 +4162,7 @@
       <c r="P76" s="25"/>
       <c r="Q76" s="23"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="25" t="s">
         <v>16</v>
       </c>
@@ -4165,13 +4187,13 @@
       </c>
       <c r="I77" s="26"/>
       <c r="J77" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K77" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L77" s="25" t="s">
         <v>178</v>
-      </c>
-      <c r="L77" s="25" t="s">
-        <v>179</v>
       </c>
       <c r="M77" s="25"/>
       <c r="N77" s="25"/>
@@ -4180,7 +4202,7 @@
       </c>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="25" t="s">
         <v>16</v>
       </c>
@@ -4188,7 +4210,7 @@
         <v>25</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>20</v>
@@ -4205,13 +4227,13 @@
       </c>
       <c r="I78" s="26"/>
       <c r="J78" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K78" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L78" s="25" t="s">
         <v>178</v>
-      </c>
-      <c r="L78" s="25" t="s">
-        <v>179</v>
       </c>
       <c r="M78" s="25"/>
       <c r="N78" s="25"/>
@@ -4220,7 +4242,7 @@
       </c>
       <c r="P78" s="25"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="25" t="s">
         <v>16</v>
       </c>
@@ -4228,7 +4250,7 @@
         <v>25</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>19</v>
@@ -4245,13 +4267,13 @@
       </c>
       <c r="I79" s="26"/>
       <c r="J79" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K79" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L79" s="25" t="s">
         <v>178</v>
-      </c>
-      <c r="L79" s="25" t="s">
-        <v>179</v>
       </c>
       <c r="M79" s="25"/>
       <c r="N79" s="25"/>
@@ -4260,7 +4282,7 @@
       </c>
       <c r="P79" s="25"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="25" t="s">
         <v>16</v>
       </c>
@@ -4296,12 +4318,12 @@
       </c>
       <c r="P80" s="25"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81" s="25" t="s">
         <v>68</v>
@@ -4320,7 +4342,7 @@
         <v>62</v>
       </c>
       <c r="I81" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J81" s="25"/>
       <c r="K81" s="25"/>
@@ -4332,15 +4354,15 @@
       </c>
       <c r="P81" s="25"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>22</v>
@@ -4356,7 +4378,7 @@
         <v>62</v>
       </c>
       <c r="I82" s="26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J82" s="25"/>
       <c r="K82" s="25"/>
@@ -4368,15 +4390,15 @@
       </c>
       <c r="P82" s="25"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D83" s="25" t="s">
         <v>22</v>
@@ -4392,7 +4414,7 @@
         <v>62</v>
       </c>
       <c r="I83" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
@@ -4404,12 +4426,12 @@
       </c>
       <c r="P83" s="25"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C84" s="25" t="s">
         <v>68</v>
@@ -4429,13 +4451,13 @@
       </c>
       <c r="I84" s="26"/>
       <c r="J84" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L84" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M84" s="25"/>
       <c r="N84" s="25"/>
@@ -4444,15 +4466,15 @@
       </c>
       <c r="P84" s="25"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D85" s="25" t="s">
         <v>19</v>
@@ -4469,13 +4491,13 @@
       </c>
       <c r="I85" s="26"/>
       <c r="J85" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K85" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L85" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M85" s="25"/>
       <c r="N85" s="25"/>
@@ -4484,15 +4506,15 @@
       </c>
       <c r="P85" s="25"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>20</v>
@@ -4501,7 +4523,7 @@
         <v>19</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G86" s="25"/>
       <c r="H86" s="25" t="s">
@@ -4509,13 +4531,13 @@
       </c>
       <c r="I86" s="26"/>
       <c r="J86" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K86" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L86" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M86" s="25"/>
       <c r="N86" s="25"/>
@@ -4524,12 +4546,12 @@
       </c>
       <c r="P86" s="25"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C87" s="25" t="s">
         <v>87</v>
@@ -4549,13 +4571,13 @@
       </c>
       <c r="I87" s="26"/>
       <c r="J87" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K87" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L87" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M87" s="25"/>
       <c r="N87" s="25"/>
@@ -4564,7 +4586,7 @@
       </c>
       <c r="P87" s="25"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="25" t="s">
         <v>16</v>
       </c>
@@ -4572,7 +4594,7 @@
         <v>25</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>20</v>
@@ -4587,13 +4609,13 @@
       </c>
       <c r="I88" s="26"/>
       <c r="J88" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K88" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L88" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K88" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L88" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M88" s="25"/>
       <c r="N88" s="25"/>
@@ -4602,7 +4624,7 @@
       </c>
       <c r="P88" s="25"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="25" t="s">
         <v>16</v>
       </c>
@@ -4619,7 +4641,7 @@
         <v>19</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="25" t="s">
@@ -4627,13 +4649,13 @@
       </c>
       <c r="I89" s="26"/>
       <c r="J89" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K89" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L89" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K89" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L89" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M89" s="25"/>
       <c r="N89" s="25"/>
@@ -4642,7 +4664,7 @@
       </c>
       <c r="P89" s="25"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="25" t="s">
         <v>16</v>
       </c>
@@ -4665,13 +4687,13 @@
       </c>
       <c r="I90" s="26"/>
       <c r="J90" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K90" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L90" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K90" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L90" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M90" s="25"/>
       <c r="N90" s="25"/>
@@ -4680,7 +4702,7 @@
       </c>
       <c r="P90" s="25"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="25" t="s">
         <v>16</v>
       </c>
@@ -4688,7 +4710,7 @@
         <v>25</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>19</v>
@@ -4703,13 +4725,13 @@
       </c>
       <c r="I91" s="26"/>
       <c r="J91" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K91" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L91" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K91" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L91" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M91" s="25"/>
       <c r="N91" s="25"/>
@@ -4718,7 +4740,7 @@
       </c>
       <c r="P91" s="25"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
         <v>16</v>
       </c>
@@ -4726,7 +4748,7 @@
         <v>25</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>20</v>
@@ -4743,13 +4765,13 @@
       </c>
       <c r="I92" s="26"/>
       <c r="J92" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K92" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L92" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K92" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L92" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M92" s="25"/>
       <c r="N92" s="25"/>
@@ -4758,7 +4780,7 @@
       </c>
       <c r="P92" s="25"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="25" t="s">
         <v>16</v>
       </c>
@@ -4766,7 +4788,7 @@
         <v>25</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>19</v>
@@ -4781,13 +4803,13 @@
       </c>
       <c r="I93" s="26"/>
       <c r="J93" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K93" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L93" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K93" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L93" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M93" s="25"/>
       <c r="N93" s="25"/>
@@ -4796,7 +4818,7 @@
       </c>
       <c r="P93" s="25"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
         <v>16</v>
       </c>
@@ -4804,7 +4826,7 @@
         <v>25</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>19</v>
@@ -4819,13 +4841,13 @@
       </c>
       <c r="I94" s="26"/>
       <c r="J94" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K94" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L94" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K94" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L94" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M94" s="25"/>
       <c r="N94" s="25"/>
@@ -4834,7 +4856,7 @@
       </c>
       <c r="P94" s="25"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="25" t="s">
         <v>16</v>
       </c>
@@ -4842,7 +4864,7 @@
         <v>25</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>19</v>
@@ -4857,13 +4879,13 @@
       </c>
       <c r="I95" s="26"/>
       <c r="J95" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K95" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L95" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K95" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L95" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M95" s="25"/>
       <c r="N95" s="25"/>
@@ -4872,7 +4894,7 @@
       </c>
       <c r="P95" s="25"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="25" t="s">
         <v>16</v>
       </c>
@@ -4880,7 +4902,7 @@
         <v>25</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D96" s="25" t="s">
         <v>20</v>
@@ -4897,13 +4919,13 @@
       </c>
       <c r="I96" s="26"/>
       <c r="J96" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K96" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L96" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K96" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L96" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M96" s="25"/>
       <c r="N96" s="25"/>
@@ -4912,7 +4934,7 @@
       </c>
       <c r="P96" s="25"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="25" t="s">
         <v>16</v>
       </c>
@@ -4920,7 +4942,7 @@
         <v>25</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D97" s="25" t="s">
         <v>19</v>
@@ -4935,13 +4957,13 @@
       </c>
       <c r="I97" s="26"/>
       <c r="J97" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K97" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L97" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K97" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L97" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M97" s="25"/>
       <c r="N97" s="25"/>
@@ -4950,7 +4972,7 @@
       </c>
       <c r="P97" s="25"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="25" t="s">
         <v>16</v>
       </c>
@@ -4958,7 +4980,7 @@
         <v>25</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>19</v>
@@ -4973,13 +4995,13 @@
       </c>
       <c r="I98" s="26"/>
       <c r="J98" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K98" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L98" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K98" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L98" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M98" s="25"/>
       <c r="N98" s="25"/>
@@ -4988,7 +5010,7 @@
       </c>
       <c r="P98" s="25"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="25" t="s">
         <v>16</v>
       </c>
@@ -5013,13 +5035,13 @@
       </c>
       <c r="I99" s="26"/>
       <c r="J99" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K99" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L99" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K99" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L99" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M99" s="25"/>
       <c r="N99" s="25"/>
@@ -5028,7 +5050,7 @@
       </c>
       <c r="P99" s="25"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="25" t="s">
         <v>16</v>
       </c>
@@ -5036,7 +5058,7 @@
         <v>25</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D100" s="25" t="s">
         <v>19</v>
@@ -5051,13 +5073,13 @@
       </c>
       <c r="I100" s="26"/>
       <c r="J100" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K100" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L100" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K100" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L100" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M100" s="25"/>
       <c r="N100" s="25"/>
@@ -5066,7 +5088,7 @@
       </c>
       <c r="P100" s="25"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="25" t="s">
         <v>16</v>
       </c>
@@ -5083,7 +5105,7 @@
         <v>19</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G101" s="25"/>
       <c r="H101" s="25" t="s">
@@ -5091,13 +5113,13 @@
       </c>
       <c r="I101" s="26"/>
       <c r="J101" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K101" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L101" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="K101" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="L101" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="M101" s="25"/>
       <c r="N101" s="25"/>
@@ -5106,7 +5128,7 @@
       </c>
       <c r="P101" s="25"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="25" t="s">
         <v>16</v>
       </c>
@@ -5136,7 +5158,7 @@
       </c>
       <c r="P102" s="25"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="25" t="s">
         <v>16</v>
       </c>
@@ -5166,7 +5188,7 @@
       </c>
       <c r="P103" s="25"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="25" t="s">
         <v>16</v>
       </c>
@@ -5196,7 +5218,7 @@
       </c>
       <c r="P104" s="25"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="25" t="s">
         <v>16</v>
       </c>
@@ -5226,7 +5248,7 @@
       </c>
       <c r="P105" s="25"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="25" t="s">
         <v>16</v>
       </c>
@@ -5244,7 +5266,7 @@
         <v>62</v>
       </c>
       <c r="I106" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J106" s="25"/>
       <c r="K106" s="25"/>
@@ -5256,7 +5278,7 @@
       </c>
       <c r="P106" s="25"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="25" t="s">
         <v>16</v>
       </c>
@@ -5264,7 +5286,7 @@
         <v>25</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D107" s="25"/>
       <c r="E107" s="25"/>
@@ -5274,7 +5296,7 @@
         <v>62</v>
       </c>
       <c r="I107" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J107" s="25"/>
       <c r="K107" s="25"/>
@@ -5286,7 +5308,7 @@
       </c>
       <c r="P107" s="25"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="25" t="s">
         <v>16</v>
       </c>
@@ -5316,7 +5338,7 @@
       </c>
       <c r="P108" s="25"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="25" t="s">
         <v>16</v>
       </c>
@@ -5346,7 +5368,7 @@
       </c>
       <c r="P109" s="25"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
         <v>16</v>
       </c>
@@ -5354,7 +5376,7 @@
         <v>25</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
@@ -5364,7 +5386,7 @@
         <v>62</v>
       </c>
       <c r="I110" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J110" s="25"/>
       <c r="K110" s="25"/>
@@ -5376,7 +5398,7 @@
       </c>
       <c r="P110" s="25"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="25" t="s">
         <v>16</v>
       </c>
@@ -5406,7 +5428,7 @@
       </c>
       <c r="P111" s="25"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="25" t="s">
         <v>16</v>
       </c>
@@ -5414,7 +5436,7 @@
         <v>25</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D112" s="25"/>
       <c r="E112" s="25"/>
@@ -5424,7 +5446,7 @@
         <v>62</v>
       </c>
       <c r="I112" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J112" s="25"/>
       <c r="K112" s="25"/>
@@ -5436,7 +5458,7 @@
       </c>
       <c r="P112" s="25"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="25" t="s">
         <v>16</v>
       </c>
@@ -5444,7 +5466,7 @@
         <v>25</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D113" s="25"/>
       <c r="E113" s="25"/>
@@ -5454,7 +5476,7 @@
         <v>62</v>
       </c>
       <c r="I113" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J113" s="25"/>
       <c r="K113" s="25"/>
@@ -5466,7 +5488,7 @@
       </c>
       <c r="P113" s="25"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="25" t="s">
         <v>16</v>
       </c>
@@ -5491,13 +5513,13 @@
       </c>
       <c r="I114" s="26"/>
       <c r="J114" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K114" s="25" t="s">
         <v>103</v>
       </c>
       <c r="L114" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M114" s="25"/>
       <c r="N114" s="25"/>
@@ -5506,7 +5528,7 @@
       </c>
       <c r="P114" s="25"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="25" t="s">
         <v>16</v>
       </c>
@@ -5531,13 +5553,13 @@
       </c>
       <c r="I115" s="26"/>
       <c r="J115" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K115" s="25" t="s">
         <v>103</v>
       </c>
       <c r="L115" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M115" s="25"/>
       <c r="N115" s="25"/>
@@ -5546,7 +5568,7 @@
       </c>
       <c r="P115" s="25"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="25" t="s">
         <v>16</v>
       </c>
@@ -5554,7 +5576,7 @@
         <v>17</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D116" s="25" t="s">
         <v>19</v>
@@ -5569,24 +5591,24 @@
       </c>
       <c r="I116" s="25"/>
       <c r="J116" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K116" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L116" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M116" s="25"/>
       <c r="N116" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O116" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="O116" s="25" t="s">
-        <v>228</v>
-      </c>
       <c r="P116" s="25"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="25" t="s">
         <v>16</v>
       </c>
@@ -5609,24 +5631,24 @@
       </c>
       <c r="I117" s="25"/>
       <c r="J117" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K117" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L117" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M117" s="25"/>
       <c r="N117" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O117" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="O117" s="25" t="s">
-        <v>228</v>
-      </c>
       <c r="P117" s="25"/>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="25" t="s">
         <v>16</v>
       </c>
@@ -5649,24 +5671,24 @@
       </c>
       <c r="I118" s="25"/>
       <c r="J118" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K118" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L118" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M118" s="25"/>
       <c r="N118" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O118" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="O118" s="25" t="s">
-        <v>228</v>
-      </c>
       <c r="P118" s="25"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="25" t="s">
         <v>16</v>
       </c>
@@ -5674,7 +5696,7 @@
         <v>17</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D119" s="25" t="s">
         <v>19</v>
@@ -5689,24 +5711,24 @@
       </c>
       <c r="I119" s="25"/>
       <c r="J119" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K119" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L119" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M119" s="25"/>
       <c r="N119" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O119" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="O119" s="25" t="s">
-        <v>228</v>
-      </c>
       <c r="P119" s="25"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="25" t="s">
         <v>16</v>
       </c>
@@ -5729,24 +5751,24 @@
       </c>
       <c r="I120" s="25"/>
       <c r="J120" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K120" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L120" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M120" s="25"/>
       <c r="N120" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O120" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="O120" s="25" t="s">
-        <v>228</v>
-      </c>
       <c r="P120" s="25"/>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
         <v>16</v>
       </c>
@@ -5769,24 +5791,24 @@
       </c>
       <c r="I121" s="25"/>
       <c r="J121" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K121" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L121" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M121" s="25"/>
       <c r="N121" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O121" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="O121" s="25" t="s">
-        <v>228</v>
-      </c>
       <c r="P121" s="25"/>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="25" t="s">
         <v>16</v>
       </c>
@@ -5809,24 +5831,24 @@
       </c>
       <c r="I122" s="25"/>
       <c r="J122" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K122" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L122" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M122" s="25"/>
       <c r="N122" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O122" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="O122" s="25" t="s">
-        <v>228</v>
-      </c>
       <c r="P122" s="25"/>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="25" t="s">
         <v>16</v>
       </c>
@@ -5834,7 +5856,7 @@
         <v>17</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>19</v>
@@ -5849,24 +5871,24 @@
       </c>
       <c r="I123" s="25"/>
       <c r="J123" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K123" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L123" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="L123" s="25" t="s">
-        <v>222</v>
       </c>
       <c r="M123" s="25"/>
       <c r="N123" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O123" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="O123" s="25" t="s">
-        <v>228</v>
-      </c>
       <c r="P123" s="25"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
         <v>16</v>
       </c>
@@ -5874,7 +5896,7 @@
         <v>42</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D124" s="25" t="s">
         <v>19</v>
@@ -5889,13 +5911,13 @@
       </c>
       <c r="I124" s="26"/>
       <c r="J124" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K124" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L124" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M124" s="25"/>
       <c r="N124" s="25"/>
@@ -5904,7 +5926,7 @@
       </c>
       <c r="P124" s="25"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="25" t="s">
         <v>16</v>
       </c>
@@ -5921,7 +5943,7 @@
         <v>19</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G125" s="25"/>
       <c r="H125" s="25" t="s">
@@ -5929,13 +5951,13 @@
       </c>
       <c r="I125" s="26"/>
       <c r="J125" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K125" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L125" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M125" s="25"/>
       <c r="N125" s="25"/>
@@ -5944,7 +5966,7 @@
       </c>
       <c r="P125" s="25"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="25" t="s">
         <v>16</v>
       </c>
@@ -5967,13 +5989,13 @@
       </c>
       <c r="I126" s="26"/>
       <c r="J126" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K126" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L126" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M126" s="25"/>
       <c r="N126" s="25"/>
@@ -5982,7 +6004,7 @@
       </c>
       <c r="P126" s="25"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
         <v>16</v>
       </c>
@@ -6005,13 +6027,13 @@
       </c>
       <c r="I127" s="26"/>
       <c r="J127" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K127" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L127" s="25" t="s">
         <v>238</v>
-      </c>
-      <c r="K127" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="L127" s="25" t="s">
-        <v>239</v>
       </c>
       <c r="M127" s="25"/>
       <c r="N127" s="25"/>
@@ -6020,7 +6042,7 @@
       </c>
       <c r="P127" s="25"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="25" t="s">
         <v>16</v>
       </c>
@@ -6043,13 +6065,13 @@
       </c>
       <c r="I128" s="26"/>
       <c r="J128" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K128" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L128" s="25" t="s">
         <v>238</v>
-      </c>
-      <c r="K128" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="L128" s="25" t="s">
-        <v>239</v>
       </c>
       <c r="M128" s="25"/>
       <c r="N128" s="25"/>
@@ -6058,7 +6080,7 @@
       </c>
       <c r="P128" s="25"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="25" t="s">
         <v>16</v>
       </c>
@@ -6081,13 +6103,13 @@
       </c>
       <c r="I129" s="26"/>
       <c r="J129" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K129" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L129" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M129" s="25"/>
       <c r="N129" s="25"/>
@@ -6096,12 +6118,12 @@
       </c>
       <c r="P129" s="25"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C130" s="25" t="s">
         <v>64</v>
@@ -6119,13 +6141,13 @@
       </c>
       <c r="I130" s="26"/>
       <c r="J130" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K130" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L130" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M130" s="25"/>
       <c r="N130" s="25"/>
@@ -6134,7 +6156,7 @@
       </c>
       <c r="P130" s="25"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="25" t="s">
         <v>16</v>
       </c>
@@ -6157,7 +6179,7 @@
       </c>
       <c r="I131" s="26"/>
       <c r="J131" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K131" s="25" t="s">
         <v>103</v>
@@ -6170,7 +6192,7 @@
       </c>
       <c r="P131" s="25"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="25" t="s">
         <v>16</v>
       </c>
@@ -6193,7 +6215,7 @@
       </c>
       <c r="I132" s="26"/>
       <c r="J132" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K132" s="25" t="s">
         <v>103</v>
@@ -6206,7 +6228,7 @@
       </c>
       <c r="P132" s="25"/>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="25" t="s">
         <v>16</v>
       </c>
@@ -6229,7 +6251,7 @@
       </c>
       <c r="I133" s="26"/>
       <c r="J133" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K133" s="25" t="s">
         <v>103</v>
@@ -6242,7 +6264,7 @@
       </c>
       <c r="P133" s="25"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="25" t="s">
         <v>16</v>
       </c>
@@ -6265,7 +6287,7 @@
       </c>
       <c r="I134" s="26"/>
       <c r="J134" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K134" s="25" t="s">
         <v>103</v>
@@ -6278,7 +6300,7 @@
       </c>
       <c r="P134" s="25"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="25" t="s">
         <v>16</v>
       </c>
@@ -6296,7 +6318,7 @@
         <v>62</v>
       </c>
       <c r="I135" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J135" s="25"/>
       <c r="K135" s="25"/>
@@ -6308,7 +6330,7 @@
       </c>
       <c r="P135" s="25"/>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="25" t="s">
         <v>16</v>
       </c>
@@ -6326,7 +6348,7 @@
         <v>62</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J136" s="25"/>
       <c r="K136" s="25"/>
@@ -6338,7 +6360,7 @@
       </c>
       <c r="P136" s="25"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="25" t="s">
         <v>16</v>
       </c>
@@ -6356,7 +6378,7 @@
         <v>62</v>
       </c>
       <c r="I137" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J137" s="25"/>
       <c r="K137" s="25"/>
@@ -6368,7 +6390,7 @@
       </c>
       <c r="P137" s="25"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="25" t="s">
         <v>16</v>
       </c>
@@ -6386,7 +6408,7 @@
         <v>62</v>
       </c>
       <c r="I138" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J138" s="25"/>
       <c r="K138" s="25"/>
@@ -6398,7 +6420,7 @@
       </c>
       <c r="P138" s="25"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="25" t="s">
         <v>16</v>
       </c>
@@ -6416,7 +6438,7 @@
         <v>62</v>
       </c>
       <c r="I139" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J139" s="25"/>
       <c r="K139" s="25"/>
@@ -6428,7 +6450,7 @@
       </c>
       <c r="P139" s="25"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="25" t="s">
         <v>16</v>
       </c>
@@ -6451,7 +6473,7 @@
       </c>
       <c r="I140" s="26"/>
       <c r="J140" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K140" s="25" t="s">
         <v>103</v>
@@ -6464,7 +6486,7 @@
       </c>
       <c r="P140" s="25"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="25" t="s">
         <v>16</v>
       </c>
@@ -6482,7 +6504,7 @@
         <v>62</v>
       </c>
       <c r="I141" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J141" s="25"/>
       <c r="K141" s="25"/>
@@ -6494,7 +6516,7 @@
       </c>
       <c r="P141" s="25"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="25" t="s">
         <v>16</v>
       </c>
@@ -6517,7 +6539,7 @@
       </c>
       <c r="I142" s="26"/>
       <c r="J142" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K142" s="25" t="s">
         <v>103</v>
@@ -6530,9 +6552,9 @@
       </c>
       <c r="P142" s="25"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B143" s="25" t="s">
         <v>25</v>
@@ -6541,10 +6563,10 @@
         <v>31</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F143" s="25"/>
       <c r="G143" s="25"/>
@@ -6553,13 +6575,13 @@
       </c>
       <c r="I143" s="26"/>
       <c r="J143" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K143" s="25" t="s">
         <v>103</v>
       </c>
       <c r="L143" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M143" s="25"/>
       <c r="N143" s="25"/>
@@ -6568,9 +6590,9 @@
       </c>
       <c r="P143" s="25"/>
     </row>
-    <row r="144" spans="1:16" s="31" customFormat="1">
+    <row r="144" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B144" s="29" t="s">
         <v>25</v>
@@ -6602,15 +6624,15 @@
       </c>
       <c r="P144" s="30"/>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B145" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D145" s="25" t="s">
         <v>20</v>
@@ -6625,18 +6647,18 @@
       </c>
       <c r="I145" s="26"/>
       <c r="J145" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K145" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="L145" s="25" t="s">
         <v>341</v>
-      </c>
-      <c r="L145" s="25" t="s">
-        <v>342</v>
       </c>
       <c r="M145" s="25"/>
       <c r="N145" s="25"/>
       <c r="O145" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P145" s="25"/>
     </row>
@@ -6647,7 +6669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBC14BD-3212-4165-871E-E34DC394CF3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6656,22 +6678,22 @@
       <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="17"/>
-    <col min="3" max="3" width="19.109375" style="17" customWidth="1"/>
-    <col min="4" max="8" width="8.88671875" style="17" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="17"/>
+    <col min="3" max="3" width="19.1640625" style="17" customWidth="1"/>
+    <col min="4" max="8" width="8.83203125" style="17" customWidth="1"/>
     <col min="9" max="9" width="16" style="17" customWidth="1"/>
     <col min="10" max="10" width="28.33203125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" style="17" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" style="17" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" style="17" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="17"/>
+    <col min="11" max="11" width="22.1640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="43.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6721,7 +6743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -6749,7 +6771,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="6"/>
       <c r="K2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>97</v>
@@ -6763,7 +6785,7 @@
       </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
@@ -6791,7 +6813,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="6"/>
       <c r="K3" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>97</v>
@@ -6805,7 +6827,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>58</v>
       </c>
@@ -6845,7 +6867,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>58</v>
       </c>
@@ -6887,7 +6909,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -6895,7 +6917,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -6914,13 +6936,13 @@
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="6"/>
@@ -6929,7 +6951,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -6956,13 +6978,13 @@
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="6"/>
@@ -6971,7 +6993,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>58</v>
       </c>
@@ -6979,7 +7001,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
@@ -6998,13 +7020,13 @@
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="6"/>
@@ -7013,7 +7035,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
@@ -7021,7 +7043,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
@@ -7040,13 +7062,13 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="6"/>
@@ -7055,7 +7077,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -7063,7 +7085,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -7082,13 +7104,13 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="6"/>
@@ -7097,7 +7119,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -7105,7 +7127,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
@@ -7124,13 +7146,13 @@
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="6"/>
@@ -7139,7 +7161,7 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
@@ -7147,7 +7169,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -7166,13 +7188,13 @@
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="6"/>
@@ -7181,7 +7203,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -7189,7 +7211,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -7208,13 +7230,13 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="6"/>
@@ -7223,7 +7245,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -7231,7 +7253,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
@@ -7250,13 +7272,13 @@
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="6"/>
@@ -7265,7 +7287,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>58</v>
       </c>
@@ -7292,13 +7314,13 @@
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="6"/>
@@ -7307,7 +7329,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
@@ -7337,15 +7359,15 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -7367,12 +7389,12 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>95</v>
@@ -7397,15 +7419,15 @@
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -7427,15 +7449,15 @@
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>20</v>
@@ -7454,13 +7476,13 @@
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="6"/>
@@ -7469,12 +7491,12 @@
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>95</v>
@@ -7496,13 +7518,13 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="6"/>
@@ -7511,7 +7533,7 @@
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -7538,13 +7560,13 @@
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="6"/>
@@ -7553,7 +7575,7 @@
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
@@ -7561,7 +7583,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
@@ -7580,13 +7602,13 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="6"/>
@@ -7595,7 +7617,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -7603,7 +7625,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -7625,7 +7647,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
@@ -7633,7 +7655,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -7655,7 +7677,7 @@
       </c>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -7685,7 +7707,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -7693,7 +7715,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -7715,7 +7737,7 @@
       </c>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -7723,7 +7745,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -7745,7 +7767,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:18" s="1" customFormat="1">
+    <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -7753,7 +7775,7 @@
         <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>19</v>
@@ -7768,24 +7790,24 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:18" s="1" customFormat="1">
+    <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -7793,7 +7815,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>19</v>
@@ -7808,24 +7830,24 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:18" s="1" customFormat="1">
+    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -7833,7 +7855,7 @@
         <v>17</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
@@ -7847,27 +7869,27 @@
         <v>39</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K31" s="25" t="s">
         <v>103</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="O31" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -7890,13 +7912,13 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="2"/>
@@ -7907,7 +7929,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -7915,7 +7937,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>20</v>
@@ -7930,13 +7952,13 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="2"/>
@@ -7945,7 +7967,7 @@
       </c>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -7968,13 +7990,13 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="2"/>
@@ -7983,7 +8005,7 @@
       </c>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
@@ -7991,7 +8013,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>20</v>
@@ -8006,13 +8028,13 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="2"/>
@@ -8021,7 +8043,7 @@
       </c>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
@@ -8044,13 +8066,13 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="2"/>
@@ -8059,12 +8081,12 @@
       </c>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>95</v>
@@ -8082,13 +8104,13 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="2"/>
@@ -8097,15 +8119,15 @@
       </c>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>20</v>
@@ -8120,13 +8142,13 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="2"/>
@@ -8135,7 +8157,7 @@
       </c>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
@@ -8143,7 +8165,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -8165,7 +8187,7 @@
       </c>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>58</v>
       </c>
@@ -8173,7 +8195,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -8195,7 +8217,7 @@
       </c>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>58</v>
       </c>
@@ -8203,7 +8225,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -8225,7 +8247,7 @@
       </c>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
@@ -8233,7 +8255,7 @@
         <v>17</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -8255,7 +8277,7 @@
       </c>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>58</v>
       </c>
@@ -8263,7 +8285,7 @@
         <v>17</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -8285,7 +8307,7 @@
       </c>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
@@ -8293,7 +8315,7 @@
         <v>17</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -8315,7 +8337,7 @@
       </c>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -8323,7 +8345,7 @@
         <v>17</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -8345,7 +8367,7 @@
       </c>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -8353,7 +8375,7 @@
         <v>17</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -8375,7 +8397,7 @@
       </c>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>58</v>
       </c>
@@ -8383,7 +8405,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -8405,7 +8427,7 @@
       </c>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
@@ -8413,7 +8435,7 @@
         <v>17</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -8435,7 +8457,7 @@
       </c>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
@@ -8443,7 +8465,7 @@
         <v>17</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -8465,7 +8487,7 @@
       </c>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
@@ -8473,7 +8495,7 @@
         <v>17</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -8495,7 +8517,7 @@
       </c>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
@@ -8503,7 +8525,7 @@
         <v>17</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -8525,7 +8547,7 @@
       </c>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
@@ -8533,7 +8555,7 @@
         <v>17</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -8555,7 +8577,7 @@
       </c>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
@@ -8563,7 +8585,7 @@
         <v>17</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -8585,7 +8607,7 @@
       </c>
       <c r="P53" s="2"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -8615,7 +8637,7 @@
       </c>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
@@ -8623,7 +8645,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -8645,7 +8667,7 @@
       </c>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -8675,7 +8697,7 @@
       </c>
       <c r="P56" s="2"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -8683,7 +8705,7 @@
         <v>17</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -8705,7 +8727,7 @@
       </c>
       <c r="P57" s="2"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -8713,7 +8735,7 @@
         <v>17</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -8735,7 +8757,7 @@
       </c>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
@@ -8743,7 +8765,7 @@
         <v>17</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -8765,7 +8787,7 @@
       </c>
       <c r="P59" s="2"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -8773,7 +8795,7 @@
         <v>25</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -8795,7 +8817,7 @@
       </c>
       <c r="P60" s="2"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
@@ -8803,7 +8825,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -8825,7 +8847,7 @@
       </c>
       <c r="P61" s="2"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>58</v>
       </c>
@@ -8833,7 +8855,7 @@
         <v>25</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -8855,7 +8877,7 @@
       </c>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>58</v>
       </c>
@@ -8863,7 +8885,7 @@
         <v>25</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -8885,7 +8907,7 @@
       </c>
       <c r="P63" s="2"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>58</v>
       </c>
@@ -8915,7 +8937,7 @@
       </c>
       <c r="P64" s="2"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>58</v>
       </c>
@@ -8923,7 +8945,7 @@
         <v>25</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -8945,7 +8967,7 @@
       </c>
       <c r="P65" s="2"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>58</v>
       </c>
@@ -8975,7 +8997,7 @@
       </c>
       <c r="P66" s="2"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>58</v>
       </c>
@@ -8983,7 +9005,7 @@
         <v>25</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -9005,7 +9027,7 @@
       </c>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>58</v>
       </c>
@@ -9013,7 +9035,7 @@
         <v>17</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -9023,7 +9045,7 @@
         <v>62</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -9035,7 +9057,7 @@
       </c>
       <c r="P68" s="2"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>58</v>
       </c>
@@ -9043,7 +9065,7 @@
         <v>45</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -9053,7 +9075,7 @@
         <v>62</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -9065,7 +9087,7 @@
       </c>
       <c r="P69" s="2"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>58</v>
       </c>
@@ -9073,7 +9095,7 @@
         <v>45</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -9095,7 +9117,7 @@
       </c>
       <c r="P70" s="2"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>58</v>
       </c>
@@ -9103,7 +9125,7 @@
         <v>34</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -9113,7 +9135,7 @@
         <v>62</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -9125,7 +9147,7 @@
       </c>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>58</v>
       </c>
@@ -9133,7 +9155,7 @@
         <v>34</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -9143,7 +9165,7 @@
         <v>62</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -9155,7 +9177,7 @@
       </c>
       <c r="P72" s="2"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>58</v>
       </c>
@@ -9163,7 +9185,7 @@
         <v>34</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -9173,7 +9195,7 @@
         <v>62</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -9185,7 +9207,7 @@
       </c>
       <c r="P73" s="2"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>58</v>
       </c>
@@ -9193,7 +9215,7 @@
         <v>17</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -9215,7 +9237,7 @@
       </c>
       <c r="P74" s="2"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>58</v>
       </c>
@@ -9223,7 +9245,7 @@
         <v>25</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -9245,7 +9267,7 @@
       </c>
       <c r="P75" s="2"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>58</v>
       </c>
@@ -9253,7 +9275,7 @@
         <v>34</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -9275,7 +9297,7 @@
       </c>
       <c r="P76" s="2"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>58</v>
       </c>
@@ -9283,7 +9305,7 @@
         <v>42</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -9305,7 +9327,7 @@
       </c>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>58</v>
       </c>
@@ -9313,7 +9335,7 @@
         <v>17</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>20</v>
@@ -9328,7 +9350,7 @@
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>103</v>
@@ -9341,7 +9363,7 @@
       </c>
       <c r="P78" s="2"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>58</v>
       </c>
@@ -9349,7 +9371,7 @@
         <v>17</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -9359,7 +9381,7 @@
         <v>62</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -9371,7 +9393,7 @@
       </c>
       <c r="P79" s="2"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>58</v>
       </c>
@@ -9394,7 +9416,7 @@
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>103</v>
@@ -9407,7 +9429,7 @@
       </c>
       <c r="P80" s="2"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>58</v>
       </c>
@@ -9425,7 +9447,7 @@
         <v>62</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -9437,7 +9459,7 @@
       </c>
       <c r="P81" s="2"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>58</v>
       </c>
@@ -9445,7 +9467,7 @@
         <v>25</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>20</v>
@@ -9460,7 +9482,7 @@
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K82" s="2" t="s">
         <v>103</v>
@@ -9473,7 +9495,7 @@
       </c>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>58</v>
       </c>
@@ -9496,7 +9518,7 @@
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>103</v>
@@ -9509,7 +9531,7 @@
       </c>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>58</v>
       </c>
@@ -9527,7 +9549,7 @@
         <v>62</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -9539,7 +9561,7 @@
       </c>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>58</v>
       </c>
@@ -9547,7 +9569,7 @@
         <v>4</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>20</v>
@@ -9562,7 +9584,7 @@
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>103</v>
@@ -9575,7 +9597,7 @@
       </c>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>58</v>
       </c>
@@ -9598,7 +9620,7 @@
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>103</v>
@@ -9611,7 +9633,7 @@
       </c>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>58</v>
       </c>
@@ -9629,7 +9651,7 @@
         <v>62</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -9641,7 +9663,7 @@
       </c>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>58</v>
       </c>
@@ -9649,7 +9671,7 @@
         <v>45</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -9671,7 +9693,7 @@
       </c>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>58</v>
       </c>
@@ -9679,7 +9701,7 @@
         <v>45</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -9701,7 +9723,7 @@
       </c>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>58</v>
       </c>
@@ -9709,7 +9731,7 @@
         <v>45</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -9731,7 +9753,7 @@
       </c>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>58</v>
       </c>
@@ -9739,7 +9761,7 @@
         <v>45</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -9761,7 +9783,7 @@
       </c>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>58</v>
       </c>
@@ -9769,7 +9791,7 @@
         <v>45</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -9791,7 +9813,7 @@
       </c>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>58</v>
       </c>
@@ -9799,7 +9821,7 @@
         <v>45</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -9821,7 +9843,7 @@
       </c>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>58</v>
       </c>
@@ -9829,7 +9851,7 @@
         <v>45</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -9851,7 +9873,7 @@
       </c>
       <c r="P94" s="2"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>58</v>
       </c>
@@ -9859,7 +9881,7 @@
         <v>34</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -9881,7 +9903,7 @@
       </c>
       <c r="P95" s="2"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>58</v>
       </c>
@@ -9889,7 +9911,7 @@
         <v>34</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -9911,7 +9933,7 @@
       </c>
       <c r="P96" s="2"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>58</v>
       </c>
@@ -9919,7 +9941,7 @@
         <v>42</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -9941,7 +9963,7 @@
       </c>
       <c r="P97" s="2"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>58</v>
       </c>
@@ -9949,7 +9971,7 @@
         <v>49</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -9971,7 +9993,7 @@
       </c>
       <c r="P98" s="2"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>58</v>
       </c>
@@ -9979,7 +10001,7 @@
         <v>49</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -10001,7 +10023,7 @@
       </c>
       <c r="P99" s="2"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>58</v>
       </c>
@@ -10009,7 +10031,7 @@
         <v>50</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -10031,7 +10053,7 @@
       </c>
       <c r="P100" s="2"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>58</v>
       </c>
@@ -10039,7 +10061,7 @@
         <v>50</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -10061,7 +10083,7 @@
       </c>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>58</v>
       </c>
@@ -10069,7 +10091,7 @@
         <v>50</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -10091,7 +10113,7 @@
       </c>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>58</v>
       </c>
@@ -10099,7 +10121,7 @@
         <v>49</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -10121,7 +10143,7 @@
       </c>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>58</v>
       </c>
@@ -10129,7 +10151,7 @@
         <v>49</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -10151,7 +10173,7 @@
       </c>
       <c r="P104" s="2"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>58</v>
       </c>
@@ -10159,7 +10181,7 @@
         <v>49</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -10181,7 +10203,7 @@
       </c>
       <c r="P105" s="2"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>58</v>
       </c>
@@ -10189,7 +10211,7 @@
         <v>34</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -10211,7 +10233,7 @@
       </c>
       <c r="P106" s="2"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>58</v>
       </c>
@@ -10219,7 +10241,7 @@
         <v>49</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -10241,7 +10263,7 @@
       </c>
       <c r="P107" s="2"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>58</v>
       </c>
@@ -10249,7 +10271,7 @@
         <v>50</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -10271,7 +10293,7 @@
       </c>
       <c r="P108" s="2"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>58</v>
       </c>
@@ -10279,7 +10301,7 @@
         <v>50</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -10301,7 +10323,7 @@
       </c>
       <c r="P109" s="2"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>58</v>
       </c>
@@ -10309,7 +10331,7 @@
         <v>34</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>19</v>
@@ -10325,10 +10347,10 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M110" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="M110" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2">
@@ -10336,7 +10358,7 @@
       </c>
       <c r="P110" s="2"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>58</v>
       </c>
@@ -10344,7 +10366,7 @@
         <v>42</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -10366,7 +10388,7 @@
       </c>
       <c r="P111" s="2"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>58</v>
       </c>
@@ -10374,7 +10396,7 @@
         <v>49</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -10396,7 +10418,7 @@
       </c>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>58</v>
       </c>
@@ -10404,7 +10426,7 @@
         <v>50</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -10426,7 +10448,7 @@
       </c>
       <c r="P113" s="2"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>58</v>
       </c>
@@ -10434,7 +10456,7 @@
         <v>17</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -10456,7 +10478,7 @@
       </c>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>58</v>
       </c>
@@ -10464,7 +10486,7 @@
         <v>45</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -10486,7 +10508,7 @@
       </c>
       <c r="P115" s="2"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>58</v>
       </c>
@@ -10494,7 +10516,7 @@
         <v>17</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -10516,7 +10538,7 @@
       </c>
       <c r="P116" s="2"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>58</v>
       </c>
@@ -10524,7 +10546,7 @@
         <v>50</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -10546,7 +10568,7 @@
       </c>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>58</v>
       </c>
@@ -10554,7 +10576,7 @@
         <v>17</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -10576,7 +10598,7 @@
       </c>
       <c r="P118" s="2"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>58</v>
       </c>
@@ -10584,7 +10606,7 @@
         <v>45</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -10606,7 +10628,7 @@
       </c>
       <c r="P119" s="2"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>58</v>
       </c>
@@ -10614,7 +10636,7 @@
         <v>34</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -10636,7 +10658,7 @@
       </c>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>58</v>
       </c>
@@ -10644,7 +10666,7 @@
         <v>42</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -10666,7 +10688,7 @@
       </c>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>58</v>
       </c>
@@ -10674,7 +10696,7 @@
         <v>17</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -10696,7 +10718,7 @@
       </c>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>58</v>
       </c>
@@ -10704,7 +10726,7 @@
         <v>45</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -10726,7 +10748,7 @@
       </c>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>58</v>
       </c>
@@ -10734,7 +10756,7 @@
         <v>34</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -10756,7 +10778,7 @@
       </c>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>58</v>
       </c>
@@ -10764,7 +10786,7 @@
         <v>42</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -10786,7 +10808,7 @@
       </c>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>58</v>
       </c>
@@ -10794,7 +10816,7 @@
         <v>49</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -10816,7 +10838,7 @@
       </c>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>58</v>
       </c>
@@ -10824,7 +10846,7 @@
         <v>17</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -10846,7 +10868,7 @@
       </c>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>58</v>
       </c>
@@ -10854,7 +10876,7 @@
         <v>45</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -10876,7 +10898,7 @@
       </c>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>58</v>
       </c>
@@ -10884,7 +10906,7 @@
         <v>49</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -10906,7 +10928,7 @@
       </c>
       <c r="P129" s="2"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>58</v>
       </c>
@@ -10914,7 +10936,7 @@
         <v>50</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -10936,7 +10958,7 @@
       </c>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>58</v>
       </c>
@@ -10944,7 +10966,7 @@
         <v>45</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -10966,7 +10988,7 @@
       </c>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>58</v>
       </c>
@@ -10974,7 +10996,7 @@
         <v>49</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -10996,7 +11018,7 @@
       </c>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>58</v>
       </c>
@@ -11004,7 +11026,7 @@
         <v>50</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -11026,7 +11048,7 @@
       </c>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>58</v>
       </c>
@@ -11034,7 +11056,7 @@
         <v>45</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -11056,7 +11078,7 @@
       </c>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>58</v>
       </c>
@@ -11064,7 +11086,7 @@
         <v>50</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -11086,7 +11108,7 @@
       </c>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>58</v>
       </c>
@@ -11094,7 +11116,7 @@
         <v>45</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -11116,7 +11138,7 @@
       </c>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>58</v>
       </c>
@@ -11124,7 +11146,7 @@
         <v>34</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -11146,7 +11168,7 @@
       </c>
       <c r="P137" s="2"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>58</v>
       </c>
@@ -11154,7 +11176,7 @@
         <v>49</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -11176,7 +11198,7 @@
       </c>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>58</v>
       </c>
@@ -11184,7 +11206,7 @@
         <v>45</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -11206,7 +11228,7 @@
       </c>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>58</v>
       </c>
@@ -11214,7 +11236,7 @@
         <v>49</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -11236,7 +11258,7 @@
       </c>
       <c r="P140" s="2"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>58</v>
       </c>
@@ -11244,7 +11266,7 @@
         <v>50</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -11266,7 +11288,7 @@
       </c>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>58</v>
       </c>
@@ -11274,7 +11296,7 @@
         <v>45</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -11296,7 +11318,7 @@
       </c>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>58</v>
       </c>
@@ -11304,7 +11326,7 @@
         <v>34</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -11326,7 +11348,7 @@
       </c>
       <c r="P143" s="2"/>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>58</v>
       </c>
@@ -11334,7 +11356,7 @@
         <v>49</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -11356,7 +11378,7 @@
       </c>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>58</v>
       </c>
@@ -11364,7 +11386,7 @@
         <v>50</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -11386,7 +11408,7 @@
       </c>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>58</v>
       </c>
@@ -11397,10 +11419,10 @@
         <v>95</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -11409,13 +11431,13 @@
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K146" s="25" t="s">
         <v>103</v>
       </c>
       <c r="L146" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -11424,7 +11446,7 @@
       </c>
       <c r="P146" s="2"/>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>58</v>
       </c>
@@ -11435,10 +11457,10 @@
         <v>95</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -11447,13 +11469,13 @@
       </c>
       <c r="I147" s="2"/>
       <c r="J147" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K147" s="25" t="s">
         <v>103</v>
       </c>
       <c r="L147" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -11469,35 +11491,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25827A2F-C920-4FF7-BCFB-10849571EE4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="13" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="13" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="13"/>
-    <col min="6" max="6" width="12.88671875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="13"/>
-    <col min="9" max="9" width="9.109375" style="14"/>
+    <col min="4" max="5" width="8.83203125" style="13"/>
+    <col min="6" max="6" width="12.83203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="13"/>
+    <col min="9" max="9" width="8.83203125" style="14"/>
     <col min="10" max="10" width="22.6640625" style="13" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="22.44140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="13" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" style="13" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="27.88671875" style="13" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" style="13" customWidth="1"/>
+    <col min="15" max="15" width="27.83203125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="27.6">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -11547,7 +11569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>104</v>
       </c>
@@ -11555,7 +11577,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>19</v>
@@ -11589,7 +11611,7 @@
       </c>
       <c r="P2" s="25"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>104</v>
       </c>
@@ -11631,7 +11653,7 @@
       </c>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>104</v>
       </c>
@@ -11673,7 +11695,7 @@
       </c>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>104</v>
       </c>
@@ -11700,13 +11722,13 @@
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="12"/>
@@ -11715,7 +11737,7 @@
       </c>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>104</v>
       </c>
@@ -11723,7 +11745,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>20</v>
@@ -11742,13 +11764,13 @@
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M6" s="25"/>
       <c r="N6" s="12"/>
@@ -11757,7 +11779,7 @@
       </c>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>104</v>
       </c>
@@ -11765,7 +11787,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>19</v>
@@ -11784,13 +11806,13 @@
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="12"/>
@@ -11799,7 +11821,7 @@
       </c>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>104</v>
       </c>
@@ -11807,7 +11829,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>20</v>
@@ -11826,13 +11848,13 @@
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="12"/>
@@ -11841,7 +11863,7 @@
       </c>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>104</v>
       </c>
@@ -11849,7 +11871,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>20</v>
@@ -11868,13 +11890,13 @@
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L9" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M9" s="25"/>
       <c r="N9" s="12"/>
@@ -11883,7 +11905,7 @@
       </c>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>104</v>
       </c>
@@ -11891,7 +11913,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>20</v>
@@ -11910,13 +11932,13 @@
       </c>
       <c r="I10" s="26"/>
       <c r="J10" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L10" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M10" s="25"/>
       <c r="N10" s="12"/>
@@ -11925,7 +11947,7 @@
       </c>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>104</v>
       </c>
@@ -11933,7 +11955,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>19</v>
@@ -11952,13 +11974,13 @@
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K11" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="12"/>
@@ -11967,7 +11989,7 @@
       </c>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>104</v>
       </c>
@@ -11975,7 +11997,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>20</v>
@@ -11984,7 +12006,7 @@
         <v>19</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>101</v>
@@ -11994,13 +12016,13 @@
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K12" s="25" t="s">
         <v>107</v>
       </c>
       <c r="L12" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="12"/>
@@ -12009,7 +12031,7 @@
       </c>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>104</v>
       </c>
@@ -12017,7 +12039,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>19</v>
@@ -12036,13 +12058,13 @@
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K13" s="25" t="s">
         <v>103</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="12"/>
@@ -12051,7 +12073,7 @@
       </c>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1">
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>104</v>
       </c>
@@ -12059,7 +12081,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>19</v>
@@ -12078,24 +12100,24 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K14" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="O14" s="25" t="s">
-        <v>228</v>
-      </c>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>104</v>
       </c>
@@ -12120,13 +12142,13 @@
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="25"/>
@@ -12135,7 +12157,7 @@
       </c>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>104</v>
       </c>
@@ -12143,7 +12165,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>20</v>
@@ -12160,13 +12182,13 @@
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="25"/>
@@ -12175,7 +12197,7 @@
       </c>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>104</v>
       </c>
@@ -12200,13 +12222,13 @@
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L17" s="25" t="s">
         <v>238</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>239</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="25"/>
@@ -12215,7 +12237,7 @@
       </c>
       <c r="P17" s="25"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>104</v>
       </c>
@@ -12240,7 +12262,7 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>103</v>
@@ -12253,7 +12275,7 @@
       </c>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
         <v>104</v>
       </c>
@@ -12261,7 +12283,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>20</v>
@@ -12287,7 +12309,7 @@
       </c>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>104</v>
       </c>
@@ -12295,7 +12317,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -12307,7 +12329,7 @@
         <v>62</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
@@ -12319,7 +12341,7 @@
       </c>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
         <v>104</v>
       </c>
@@ -12339,7 +12361,7 @@
         <v>62</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -12351,7 +12373,7 @@
       </c>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>104</v>
       </c>
@@ -12376,7 +12398,7 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K22" s="25" t="s">
         <v>103</v>
@@ -12389,7 +12411,7 @@
       </c>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>104</v>
       </c>
@@ -12397,7 +12419,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -12409,7 +12431,7 @@
         <v>62</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -12421,7 +12443,7 @@
       </c>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>104</v>
       </c>
@@ -12429,7 +12451,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
@@ -12441,7 +12463,7 @@
         <v>62</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -12453,7 +12475,7 @@
       </c>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>104</v>
       </c>
@@ -12461,7 +12483,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -12473,7 +12495,7 @@
         <v>62</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -12485,7 +12507,7 @@
       </c>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>104</v>
       </c>
@@ -12493,7 +12515,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -12505,7 +12527,7 @@
         <v>62</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -12517,7 +12539,7 @@
       </c>
       <c r="P26" s="25"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>104</v>
       </c>
@@ -12537,7 +12559,7 @@
         <v>62</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -12549,7 +12571,7 @@
       </c>
       <c r="P27" s="25"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>104</v>
       </c>
@@ -12557,7 +12579,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -12569,7 +12591,7 @@
         <v>62</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -12581,7 +12603,7 @@
       </c>
       <c r="P28" s="25"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
         <v>104</v>
       </c>
@@ -12589,7 +12611,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -12601,7 +12623,7 @@
         <v>62</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -12613,7 +12635,7 @@
       </c>
       <c r="P29" s="25"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>104</v>
       </c>
@@ -12621,7 +12643,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -12633,7 +12655,7 @@
         <v>62</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -12645,7 +12667,7 @@
       </c>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
         <v>104</v>
       </c>
@@ -12653,7 +12675,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -12665,7 +12687,7 @@
         <v>62</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
@@ -12677,7 +12699,7 @@
       </c>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>104</v>
       </c>
@@ -12685,7 +12707,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -12709,7 +12731,7 @@
       </c>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
         <v>104</v>
       </c>
@@ -12717,7 +12739,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -12729,7 +12751,7 @@
         <v>62</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
@@ -12741,7 +12763,7 @@
       </c>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>104</v>
       </c>
@@ -12749,7 +12771,7 @@
         <v>25</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="25"/>
@@ -12773,7 +12795,7 @@
       </c>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>104</v>
       </c>
@@ -12781,7 +12803,7 @@
         <v>25</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -12793,7 +12815,7 @@
         <v>62</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
@@ -12805,7 +12827,7 @@
       </c>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>104</v>
       </c>
@@ -12825,7 +12847,7 @@
         <v>62</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
@@ -12837,7 +12859,7 @@
       </c>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>104</v>
       </c>
@@ -12845,7 +12867,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D37" s="25"/>
       <c r="E37" s="25"/>
@@ -12869,7 +12891,7 @@
       </c>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>104</v>
       </c>
@@ -12877,7 +12899,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
@@ -12901,7 +12923,7 @@
       </c>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>104</v>
       </c>
@@ -12909,7 +12931,7 @@
         <v>17</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
@@ -12933,7 +12955,7 @@
       </c>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>104</v>
       </c>
@@ -12941,7 +12963,7 @@
         <v>17</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
@@ -12953,7 +12975,7 @@
         <v>62</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
@@ -12965,7 +12987,7 @@
       </c>
       <c r="P40" s="25"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>104</v>
       </c>
@@ -12973,7 +12995,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
@@ -12985,7 +13007,7 @@
         <v>62</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
@@ -12997,7 +13019,7 @@
       </c>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>104</v>
       </c>
@@ -13005,7 +13027,7 @@
         <v>25</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
@@ -13017,7 +13039,7 @@
         <v>62</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
@@ -13029,7 +13051,7 @@
       </c>
       <c r="P42" s="25"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>104</v>
       </c>
@@ -13037,7 +13059,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="25"/>
@@ -13049,7 +13071,7 @@
         <v>62</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
@@ -13061,7 +13083,7 @@
       </c>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
         <v>104</v>
       </c>
@@ -13069,7 +13091,7 @@
         <v>25</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -13081,7 +13103,7 @@
         <v>62</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
@@ -13093,7 +13115,7 @@
       </c>
       <c r="P44" s="25"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
         <v>104</v>
       </c>
@@ -13101,13 +13123,13 @@
         <v>25</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="29" t="s">
@@ -13118,13 +13140,13 @@
       </c>
       <c r="I45" s="26"/>
       <c r="J45" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K45" s="25" t="s">
         <v>103</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M45" s="25"/>
       <c r="N45" s="25"/>
@@ -13133,7 +13155,7 @@
       </c>
       <c r="P45" s="25"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>104</v>
       </c>
@@ -13141,7 +13163,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>19</v>
